--- a/output/fit_clients/fit_round_343.xlsx
+++ b/output/fit_clients/fit_round_343.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2466366040.832245</v>
+        <v>1711734640.174532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1137593884172401</v>
+        <v>0.08041870227616862</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04372829233398502</v>
+        <v>0.04115349912872975</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1233183078.775491</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1821763642.02913</v>
+        <v>2507718328.598178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1535963336505717</v>
+        <v>0.1529632115908771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04484904369707166</v>
+        <v>0.04865374051525649</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>910881833.4756618</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5130467202.456583</v>
+        <v>4887788561.987057</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1467975023603821</v>
+        <v>0.1357429066710509</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02927662543201155</v>
+        <v>0.02928629133652952</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>124</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2565233695.513007</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3226636668.887434</v>
+        <v>2836773611.250285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08326600989814882</v>
+        <v>0.06925856262432141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04781204210797488</v>
+        <v>0.04762577697445786</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>130</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1613318389.281869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2365499408.435231</v>
+        <v>2557068649.789873</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09234801397832343</v>
+        <v>0.1168034788222996</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04220817860629776</v>
+        <v>0.04573488260893027</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1182749694.265246</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2629472517.97642</v>
+        <v>2961849687.661136</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1020940889145488</v>
+        <v>0.07858281812041736</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03571988740348606</v>
+        <v>0.04542308589076097</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>106</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1314736259.5423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2608208105.778417</v>
+        <v>2676415392.566439</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1614874515360712</v>
+        <v>0.20986252087695</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02138935410617431</v>
+        <v>0.02085612073103348</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>109</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1304104070.357167</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2258669263.77124</v>
+        <v>2038796292.477386</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1287626029911696</v>
+        <v>0.1269806144420241</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03313251314288988</v>
+        <v>0.02331906779460012</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1129334622.61654</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4738350534.227874</v>
+        <v>5515170988.25611</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1702045083337845</v>
+        <v>0.1997716179905313</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04681946904187217</v>
+        <v>0.04699972122794735</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>144</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2369175346.178689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3675576765.278341</v>
+        <v>3234368057.500114</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1171355057208958</v>
+        <v>0.1375412759666396</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04280197271719287</v>
+        <v>0.03802759819329136</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>141</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1837788372.672023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2611383098.218363</v>
+        <v>2301562196.846211</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1811535678809423</v>
+        <v>0.1514101167426015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05307449796779931</v>
+        <v>0.04579791299206651</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>118</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1305691531.551692</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5174700433.495809</v>
+        <v>4784358938.61822</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08559040159286523</v>
+        <v>0.06259688038318113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0275797151168777</v>
+        <v>0.02265273915827755</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>115</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2587350212.021561</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2915145112.905571</v>
+        <v>3209832821.980617</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1380189786560205</v>
+        <v>0.1568356469559196</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03084299351322676</v>
+        <v>0.04202881180601691</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>111</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1457572597.046296</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1821425913.312997</v>
+        <v>1727834379.452028</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0977523301214925</v>
+        <v>0.08077176891444855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03217775314252076</v>
+        <v>0.04040285839665001</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>910713115.0401461</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1934462544.412819</v>
+        <v>1990005316.371707</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09576626324528494</v>
+        <v>0.1050039608992938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05072973981995228</v>
+        <v>0.04662910251657822</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>68</v>
-      </c>
-      <c r="J16" t="n">
-        <v>967231353.5656247</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3999366638.667883</v>
+        <v>4318770110.291562</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1411814818107958</v>
+        <v>0.1528260767617995</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04048459038300366</v>
+        <v>0.05310306976927574</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>100</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1999683353.926766</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3841220649.755199</v>
+        <v>3874471897.227092</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1308181878865753</v>
+        <v>0.1846101981774028</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0331165672480072</v>
+        <v>0.02272509907555106</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>112</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1920610294.288153</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1060778764.767024</v>
+        <v>829729091.7914439</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1261489505492688</v>
+        <v>0.1233815645912665</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02033169859687771</v>
+        <v>0.02377249190300584</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530389426.4539254</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1901570483.998984</v>
+        <v>2760391348.15746</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1471948871117856</v>
+        <v>0.1049663502918368</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03113346042895354</v>
+        <v>0.0248093577613931</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>950785278.8383387</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2477889116.666888</v>
+        <v>1989233693.410671</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08210637007859678</v>
+        <v>0.07523536389970611</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04057140502003957</v>
+        <v>0.02823062378536042</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>29</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1238944548.558945</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2619741037.334145</v>
+        <v>2528382760.72771</v>
       </c>
       <c r="F22" t="n">
-        <v>0.120388971706445</v>
+        <v>0.09326830542837265</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05008217057687653</v>
+        <v>0.04663715675015871</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>94</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1309870602.977067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>983263791.3254225</v>
+        <v>1209161859.155099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1535756643991771</v>
+        <v>0.181612119791742</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0339951388768949</v>
+        <v>0.03653284818105407</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>491631968.6626989</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3494182667.213531</v>
+        <v>3032434229.775511</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1153764080397706</v>
+        <v>0.09523749396196124</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03082479936502481</v>
+        <v>0.02718247976710852</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>100</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1747091335.623619</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1414375924.780857</v>
+        <v>1255745097.451381</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100400896265411</v>
+        <v>0.09457469271427417</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01983346787118857</v>
+        <v>0.03067803388859599</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>707187931.0410802</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1262213971.646872</v>
+        <v>1157715404.045972</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1246150606017405</v>
+        <v>0.1024955226030761</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02718734291670184</v>
+        <v>0.02991044771075011</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>631107022.0764203</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3009987836.216888</v>
+        <v>4112456472.982167</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1569361815744908</v>
+        <v>0.1188068409738433</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0227023580058635</v>
+        <v>0.0194103633570205</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1504993977.421874</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2941294710.295281</v>
+        <v>2908035122.642889</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1132152455731465</v>
+        <v>0.1014355284503056</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04036858641227153</v>
+        <v>0.04145341755022042</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>113</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1470647361.267219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4424959277.508541</v>
+        <v>5801885486.361109</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1219427231905498</v>
+        <v>0.09122451823591796</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04298534523769896</v>
+        <v>0.04605343897593585</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>151</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2212479626.146981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1945773610.679038</v>
+        <v>1943877643.784336</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1036680914584994</v>
+        <v>0.1342997965912757</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03211512154759881</v>
+        <v>0.03507937370488391</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>972886836.6049747</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1365674994.987796</v>
+        <v>1274998184.359771</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09361828917461441</v>
+        <v>0.07875730521504454</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03853815376332864</v>
+        <v>0.05165883912818367</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>682837409.9685543</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1486408135.041019</v>
+        <v>1836985344.528605</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09680436376423657</v>
+        <v>0.07686160797132076</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02733974080980071</v>
+        <v>0.0277253931766499</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>743204133.0438859</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2955811655.418077</v>
+        <v>2351762170.018579</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2021121777669297</v>
+        <v>0.1264986296681264</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04369522390211484</v>
+        <v>0.04026673349426258</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>102</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1477905827.109843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1318787154.6381</v>
+        <v>1215889429.183656</v>
       </c>
       <c r="F34" t="n">
-        <v>0.111105930990646</v>
+        <v>0.09956876328516713</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01823940468566017</v>
+        <v>0.02417069990902554</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>659393562.8708351</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>894381315.8027236</v>
+        <v>1262821109.183099</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09071211084890203</v>
+        <v>0.09546009857802785</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03354855221764543</v>
+        <v>0.0369025308366352</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>447190699.6471267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2571426783.608053</v>
+        <v>2233925612.960103</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1159408469800772</v>
+        <v>0.1153305521265072</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01762089771431414</v>
+        <v>0.02456043431111472</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>88</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1285713408.077643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2403437277.024524</v>
+        <v>2917960810.639277</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1057847899147445</v>
+        <v>0.08288633571440443</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03910364152758695</v>
+        <v>0.042215671673087</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>91</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1201718721.303478</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1686156946.81126</v>
+        <v>1755238891.172116</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08059712177744421</v>
+        <v>0.1037718315282165</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02554482427151014</v>
+        <v>0.03818085563257151</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>843078496.3736907</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2146762506.003011</v>
+        <v>1987075830.433101</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1277276499451556</v>
+        <v>0.1807931427786422</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02257928638220036</v>
+        <v>0.02771428779807892</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1073381225.252998</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1689131869.909029</v>
+        <v>1305777816.344563</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1300095110929312</v>
+        <v>0.1144554784029373</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0512053451380813</v>
+        <v>0.05088526621280014</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>844565853.800739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2388084377.316857</v>
+        <v>2281567551.036503</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1380859282257567</v>
+        <v>0.1231101105896614</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04495814759841076</v>
+        <v>0.04263528815733609</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>88</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1194042224.879482</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3125316183.37381</v>
+        <v>2660808443.221014</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09660104439286736</v>
+        <v>0.1142293629467076</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04268140694230531</v>
+        <v>0.04241076804482837</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>116</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1562658060.753866</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2830346488.731702</v>
+        <v>2155995933.016084</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1533347488212911</v>
+        <v>0.1483554817468818</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02538690473197298</v>
+        <v>0.01895028553498417</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>123</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1415173259.828069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2345132392.128566</v>
+        <v>1509694431.724732</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06604029336034831</v>
+        <v>0.09725303120656692</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02664940518268494</v>
+        <v>0.03202053671700734</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1172566371.266636</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1556602070.004894</v>
+        <v>1968453933.595704</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1696562024241894</v>
+        <v>0.1646805297594059</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04093303119496915</v>
+        <v>0.03704465709696516</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>778300981.2235963</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3897741032.438379</v>
+        <v>4175263143.79662</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1170452972276416</v>
+        <v>0.1352062760264172</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05221304887133194</v>
+        <v>0.03871983941081931</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>122</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1948870479.91545</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5065929627.483632</v>
+        <v>4955852117.718374</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1817363738594391</v>
+        <v>0.1901859885195122</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05055340093625448</v>
+        <v>0.05127631635610342</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>92</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2532964873.288247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4222701648.48741</v>
+        <v>2956894798.65907</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06985726777094615</v>
+        <v>0.08263375812208421</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02896629612841366</v>
+        <v>0.02817852102670715</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>113</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2111350845.657114</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1256194313.892518</v>
+        <v>1203857490.87368</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1896563078553069</v>
+        <v>0.1873443548852053</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04312258722523866</v>
+        <v>0.03050867979316979</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>628097226.894118</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3620922520.837751</v>
+        <v>3855188373.117548</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1564250302732997</v>
+        <v>0.1379545714631124</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03903228318117673</v>
+        <v>0.03820570486524417</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>117</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1810461276.101726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1141718657.540757</v>
+        <v>1460812138.319037</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1605831435412452</v>
+        <v>0.1628328702322073</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03542403256004645</v>
+        <v>0.05143437549443496</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>570859389.775272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4104197373.612276</v>
+        <v>3260599965.848352</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1154951079407718</v>
+        <v>0.1372020111659929</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0489562340067398</v>
+        <v>0.04194639979652001</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>141</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2052098737.160626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2545053669.151631</v>
+        <v>3023612709.571225</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1408936808094423</v>
+        <v>0.1481092209936511</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0270648252262806</v>
+        <v>0.0331586748144834</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1272526898.432157</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4152588792.086154</v>
+        <v>3398312491.925203</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1511154804023322</v>
+        <v>0.1632802306634907</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03440180475099167</v>
+        <v>0.04366038935229392</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>113</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2076294472.103712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3301590394.952919</v>
+        <v>3826224173.867337</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2010568551389125</v>
+        <v>0.1387723629475715</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02069877273772276</v>
+        <v>0.02123052299003479</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1650795141.56061</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1445699651.771189</v>
+        <v>1871861651.536308</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1075480948277079</v>
+        <v>0.1490852044091347</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03760656280480298</v>
+        <v>0.05780910337901728</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>722849876.167922</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3547105782.169228</v>
+        <v>3473519747.448593</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1497821398320011</v>
+        <v>0.1272185183070995</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01855311771061574</v>
+        <v>0.02172388535639714</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>109</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1773552941.433739</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1828953914.544595</v>
+        <v>1312068740.139671</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1462090322942099</v>
+        <v>0.2016249872747619</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03455542365978654</v>
+        <v>0.03770700237596591</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>914476958.3880799</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3782452488.773669</v>
+        <v>4124328687.119117</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09179346926616358</v>
+        <v>0.1001090823876279</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04595550822381205</v>
+        <v>0.04217461372554882</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1891226230.847107</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3256122838.546086</v>
+        <v>2603756034.097141</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1720454249685185</v>
+        <v>0.183914818964047</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0219489445872129</v>
+        <v>0.028121268998695</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>107</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1628061516.496297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2825337104.062676</v>
+        <v>3056646624.809211</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1735729550985158</v>
+        <v>0.1603252704479382</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03294441028713323</v>
+        <v>0.0286002518379181</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>117</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1412668548.976959</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1781574598.238635</v>
+        <v>1510519417.103728</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1580580829135363</v>
+        <v>0.1236803180593327</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03850905272814286</v>
+        <v>0.03372064641156823</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>890787324.446916</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3987087295.599174</v>
+        <v>4022195125.922585</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0766148995252173</v>
+        <v>0.09046081614303672</v>
       </c>
       <c r="G63" t="n">
-        <v>0.038366933210901</v>
+        <v>0.04180673907936781</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>98</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1993543710.79185</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5074789905.254618</v>
+        <v>5562212829.858464</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1490705033840022</v>
+        <v>0.1317048915433882</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02642923322874808</v>
+        <v>0.03387907344127895</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>106</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2537395064.095206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3697898292.910287</v>
+        <v>5184774036.084476</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1493172200945801</v>
+        <v>0.1276679653424596</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02375818855385907</v>
+        <v>0.02537057695340166</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>123</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1848949183.071217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4732025206.257809</v>
+        <v>4384293957.862418</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1202887174579678</v>
+        <v>0.1325710699224251</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04552223747016602</v>
+        <v>0.04107227168188255</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>100</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2366012615.940477</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3190504247.814512</v>
+        <v>3358934203.885198</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09220061468607765</v>
+        <v>0.09699085746791136</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04627395734540095</v>
+        <v>0.0378773502816893</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>110</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1595252126.053063</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4941811888.854033</v>
+        <v>4609813854.043498</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1408459845696549</v>
+        <v>0.1317267420067889</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03520181626429347</v>
+        <v>0.04377814863770163</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>114</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2470905997.293058</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2243586311.287227</v>
+        <v>2147293475.247934</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1348175314625723</v>
+        <v>0.1720230507505521</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04612137477952535</v>
+        <v>0.04658875592481185</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1121793192.101941</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2645622378.199123</v>
+        <v>2409796579.200922</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07856911925529941</v>
+        <v>0.08822643719876827</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04141237920165551</v>
+        <v>0.04420411364793977</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>97</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1322811143.044304</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4827185067.587338</v>
+        <v>4643463378.653464</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1761902314543531</v>
+        <v>0.1676099525675796</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03281258205185591</v>
+        <v>0.02671996784746586</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>125</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2413592626.606754</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2252767645.423985</v>
+        <v>2084205837.058936</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08960285017792738</v>
+        <v>0.07025564481372759</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04657659429410877</v>
+        <v>0.03616045109339825</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1126383728.308093</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2744319185.631264</v>
+        <v>2821342258.977693</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09015890440471633</v>
+        <v>0.06896364313808891</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03173279055767919</v>
+        <v>0.04354863946724573</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>130</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1372159612.224318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2546130058.250971</v>
+        <v>3714890679.412722</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1190077226288231</v>
+        <v>0.1355395774565067</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03159141820141512</v>
+        <v>0.02647537508415395</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>117</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1273065133.781977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1612647265.213959</v>
+        <v>2154709195.157863</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1190873419260739</v>
+        <v>0.1428960084173452</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03554871798097375</v>
+        <v>0.02649504692847648</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>806323633.113451</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5237333707.462497</v>
+        <v>3633954393.128906</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1074735144133419</v>
+        <v>0.1194372875997891</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02968960305080308</v>
+        <v>0.0283305691374082</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2618666890.308113</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1688030673.576055</v>
+        <v>1483605048.980835</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1755585251754439</v>
+        <v>0.1691590188403574</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02050502954431788</v>
+        <v>0.02464691482422044</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>844015352.2116532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4206244038.814205</v>
+        <v>3148649813.543152</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1312128284558858</v>
+        <v>0.1085187054594813</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05443633981671803</v>
+        <v>0.04734727172761742</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>119</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2103121970.390575</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1843728130.47033</v>
+        <v>1687725688.748466</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1100382505994959</v>
+        <v>0.1268222825905427</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03806250326820652</v>
+        <v>0.03172734289958875</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>921864159.5724932</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5607635219.168389</v>
+        <v>4092616720.576357</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08903247533389594</v>
+        <v>0.07341225529623653</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0365093443510312</v>
+        <v>0.03070271358839985</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>73</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2803817689.018349</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4891970433.769309</v>
+        <v>3631554524.914379</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09475150948256608</v>
+        <v>0.1365488124244743</v>
       </c>
       <c r="G81" t="n">
-        <v>0.030335694794632</v>
+        <v>0.02764957229544265</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>79</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2445985213.217116</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4286947401.500094</v>
+        <v>5353433912.368651</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2123781391216974</v>
+        <v>0.1781314814406195</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02708350861417788</v>
+        <v>0.02948778779030743</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>121</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2143473724.509068</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2249949539.408168</v>
+        <v>1997995601.594937</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1174509900392977</v>
+        <v>0.127679360390185</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04517856520841278</v>
+        <v>0.03160098053427364</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1124974786.150525</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2086339632.887864</v>
+        <v>2348493616.568171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08847453568629197</v>
+        <v>0.1185012482387542</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05045433824821252</v>
+        <v>0.05030042636463194</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1043169808.78891</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3313826456.605143</v>
+        <v>2246289363.859099</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1242550632845969</v>
+        <v>0.1257331802006165</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05309762128238384</v>
+        <v>0.05303228532110556</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>128</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1656913323.13199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2002436797.237386</v>
+        <v>2254057319.661407</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1193205763631034</v>
+        <v>0.1211204119977181</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0212257265665907</v>
+        <v>0.0272076427758819</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1001218426.601414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1167961048.064297</v>
+        <v>1078621261.419586</v>
       </c>
       <c r="F87" t="n">
-        <v>0.160492846836941</v>
+        <v>0.1458964261881642</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03031990646907156</v>
+        <v>0.03162459976422617</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>583980571.4056519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3022619233.555736</v>
+        <v>3274495641.411695</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1738325115191959</v>
+        <v>0.1554446916261076</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02624669896402275</v>
+        <v>0.0351965824538542</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>136</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1511309649.461045</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2767537439.707741</v>
+        <v>2808881790.676926</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1544886904013392</v>
+        <v>0.1291203183644671</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03742138738708559</v>
+        <v>0.04071203140889215</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>116</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1383768775.000206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1422545287.402534</v>
+        <v>2151994585.639443</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1034497266371072</v>
+        <v>0.1241988374085275</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04800915554913743</v>
+        <v>0.03560724989233562</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>711272608.293644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2057423471.516638</v>
+        <v>1291524242.729443</v>
       </c>
       <c r="F91" t="n">
-        <v>0.193694174678918</v>
+        <v>0.1766743352977643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04868921746897072</v>
+        <v>0.06182182695970604</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1028711700.368788</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2253236007.030829</v>
+        <v>2730374594.899393</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08137555856172221</v>
+        <v>0.08680892145839927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04476386158890688</v>
+        <v>0.04577462394201805</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>93</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1126617968.81245</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3561507995.239376</v>
+        <v>3403102285.151031</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1142982701033154</v>
+        <v>0.1022549483055973</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03584135623641866</v>
+        <v>0.04821429943333989</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1780754026.579799</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2234033416.279313</v>
+        <v>2511632189.320084</v>
       </c>
       <c r="F94" t="n">
-        <v>0.148708621734373</v>
+        <v>0.1318145612394583</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03678764386624469</v>
+        <v>0.04210461839142009</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1117016736.971425</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3101907861.09945</v>
+        <v>2533664817.774958</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09384657950518364</v>
+        <v>0.08561180670766816</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03669488101746336</v>
+        <v>0.04807994100269966</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1550953922.90959</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1488755789.35762</v>
+        <v>1583739464.803267</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1056862902605934</v>
+        <v>0.0951767988027972</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04147287605931058</v>
+        <v>0.02929906733611054</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>744377936.2398636</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3395660779.772606</v>
+        <v>5253227895.09157</v>
       </c>
       <c r="F97" t="n">
-        <v>0.176936969385686</v>
+        <v>0.1184044493171333</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02127341734280177</v>
+        <v>0.02228260408035205</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>111</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1697830397.664617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2388811415.324739</v>
+        <v>3369169480.611489</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1133072807661819</v>
+        <v>0.1299502742808484</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02536485980603116</v>
+        <v>0.0310624013327494</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>90</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1194405650.909382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2073121147.174016</v>
+        <v>2330270923.500858</v>
       </c>
       <c r="F99" t="n">
-        <v>0.143203137364531</v>
+        <v>0.1097761409662762</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02604348927016103</v>
+        <v>0.0239501117851205</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>108</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1036560492.400294</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3786043650.097307</v>
+        <v>4160237196.650907</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1537328964967322</v>
+        <v>0.1681310825828568</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01928646349534696</v>
+        <v>0.02092156952410647</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>105</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1893021878.63533</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2705339274.554639</v>
+        <v>3447658272.710812</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1653455381017305</v>
+        <v>0.1440058874981185</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03523985048550497</v>
+        <v>0.03867055394655428</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>138</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1352669687.376281</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_343.xlsx
+++ b/output/fit_clients/fit_round_343.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1711734640.174532</v>
+        <v>1922455093.153033</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08041870227616862</v>
+        <v>0.0998948498697614</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04115349912872975</v>
+        <v>0.04088751921009601</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2507718328.598178</v>
+        <v>1602492071.466976</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1529632115908771</v>
+        <v>0.1712079237665878</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04865374051525649</v>
+        <v>0.04213830466862763</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4887788561.987057</v>
+        <v>4694757675.633143</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1357429066710509</v>
+        <v>0.153254715113694</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02928629133652952</v>
+        <v>0.03149198234887509</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2836773611.250285</v>
+        <v>3466982997.548067</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06925856262432141</v>
+        <v>0.07723960387359692</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04762577697445786</v>
+        <v>0.04292360696030105</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2557068649.789873</v>
+        <v>2243797385.242088</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1168034788222996</v>
+        <v>0.1007180012441114</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04573488260893027</v>
+        <v>0.03537262672061543</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2961849687.661136</v>
+        <v>2896547713.617064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07858281812041736</v>
+        <v>0.09815029314837891</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04542308589076097</v>
+        <v>0.03465062502284569</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2676415392.566439</v>
+        <v>3978974559.811108</v>
       </c>
       <c r="F8" t="n">
-        <v>0.20986252087695</v>
+        <v>0.2081417025049969</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02085612073103348</v>
+        <v>0.02637218150438863</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2038796292.477386</v>
+        <v>2165791753.29834</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1269806144420241</v>
+        <v>0.159753604663051</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02331906779460012</v>
+        <v>0.03180682087701104</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5515170988.25611</v>
+        <v>4964239717.338204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1997716179905313</v>
+        <v>0.163541631081144</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04699972122794735</v>
+        <v>0.04086180247064836</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3234368057.500114</v>
+        <v>2817824635.018272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1375412759666396</v>
+        <v>0.1726870481213023</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03802759819329136</v>
+        <v>0.03110574010312937</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2301562196.846211</v>
+        <v>2219169017.722021</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1514101167426015</v>
+        <v>0.1787264665847855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04579791299206651</v>
+        <v>0.04252662917697581</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4784358938.61822</v>
+        <v>4814325859.913944</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06259688038318113</v>
+        <v>0.09268703389937137</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02265273915827755</v>
+        <v>0.02048026639093125</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3209832821.980617</v>
+        <v>3642811619.150097</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1568356469559196</v>
+        <v>0.1698595665028548</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04202881180601691</v>
+        <v>0.02671869523408149</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1727834379.452028</v>
+        <v>1283346899.653221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08077176891444855</v>
+        <v>0.08127637931439581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04040285839665001</v>
+        <v>0.03895866665379124</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1990005316.371707</v>
+        <v>2839261553.320696</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1050039608992938</v>
+        <v>0.09237330459776971</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04662910251657822</v>
+        <v>0.03710382806419114</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4318770110.291562</v>
+        <v>3208388766.16353</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1528260767617995</v>
+        <v>0.1218391579291713</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05310306976927574</v>
+        <v>0.03317630839816609</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3874471897.227092</v>
+        <v>3061420781.213111</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1846101981774028</v>
+        <v>0.1572068322047039</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02272509907555106</v>
+        <v>0.0247748512122153</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>829729091.7914439</v>
+        <v>1211269038.55732</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1233815645912665</v>
+        <v>0.1612492173012912</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02377249190300584</v>
+        <v>0.01676946254099893</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2760391348.15746</v>
+        <v>2063730479.542807</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1049663502918368</v>
+        <v>0.1428862809934017</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0248093577613931</v>
+        <v>0.02318098560220002</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1989233693.410671</v>
+        <v>2019690158.673532</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07523536389970611</v>
+        <v>0.06576137977656862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02823062378536042</v>
+        <v>0.03012019893325949</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2528382760.72771</v>
+        <v>2983413812.995243</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09326830542837265</v>
+        <v>0.08804337366805495</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04663715675015871</v>
+        <v>0.05189253472703548</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1209161859.155099</v>
+        <v>937387929.3819256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.181612119791742</v>
+        <v>0.1661523444257508</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03653284818105407</v>
+        <v>0.04044806409025527</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3032434229.775511</v>
+        <v>3262021990.243283</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09523749396196124</v>
+        <v>0.1062437041836635</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02718247976710852</v>
+        <v>0.02680566780757695</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1255745097.451381</v>
+        <v>1174808611.433132</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09457469271427417</v>
+        <v>0.1156142211257048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03067803388859599</v>
+        <v>0.02547301189446618</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1157715404.045972</v>
+        <v>1204096035.556933</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1024955226030761</v>
+        <v>0.09142085631558168</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02991044771075011</v>
+        <v>0.03241569370934592</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4112456472.982167</v>
+        <v>4598675221.250063</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1188068409738433</v>
+        <v>0.1295412959810044</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0194103633570205</v>
+        <v>0.01830265041508394</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2908035122.642889</v>
+        <v>3724935851.821749</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1014355284503056</v>
+        <v>0.1373321666393467</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04145341755022042</v>
+        <v>0.0417884716396569</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5801885486.361109</v>
+        <v>4302383137.778778</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09122451823591796</v>
+        <v>0.1336049716155125</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04605343897593585</v>
+        <v>0.02909881906233401</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1943877643.784336</v>
+        <v>2336907891.755781</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1342997965912757</v>
+        <v>0.09708878745121442</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03507937370488391</v>
+        <v>0.02985081164389064</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1274998184.359771</v>
+        <v>1017591217.283015</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07875730521504454</v>
+        <v>0.09330456235340195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05165883912818367</v>
+        <v>0.04230222189076998</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1836985344.528605</v>
+        <v>1598675697.769889</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07686160797132076</v>
+        <v>0.1201550278055577</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0277253931766499</v>
+        <v>0.03310899963744103</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2351762170.018579</v>
+        <v>2834993381.348869</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1264986296681264</v>
+        <v>0.1572410663815637</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04026673349426258</v>
+        <v>0.04191702926776368</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1215889429.183656</v>
+        <v>1521791101.410743</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09956876328516713</v>
+        <v>0.07438097118685445</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02417069990902554</v>
+        <v>0.02505183061450156</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1262821109.183099</v>
+        <v>1190211280.639798</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09546009857802785</v>
+        <v>0.0923556746975291</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0369025308366352</v>
+        <v>0.04095443534732814</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2233925612.960103</v>
+        <v>2653766271.604118</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1153305521265072</v>
+        <v>0.1331170285604215</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02456043431111472</v>
+        <v>0.02050220493857356</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2917960810.639277</v>
+        <v>2008685165.858992</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08288633571440443</v>
+        <v>0.0720484964830729</v>
       </c>
       <c r="G37" t="n">
-        <v>0.042215671673087</v>
+        <v>0.03634939267869638</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1755238891.172116</v>
+        <v>1864172057.584666</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1037718315282165</v>
+        <v>0.113836129169453</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03818085563257151</v>
+        <v>0.03964222739275819</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1987075830.433101</v>
+        <v>1956054659.77273</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1807931427786422</v>
+        <v>0.194251729535106</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02771428779807892</v>
+        <v>0.02034783591768566</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1305777816.344563</v>
+        <v>1153748934.222298</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1144554784029373</v>
+        <v>0.13290291687478</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05088526621280014</v>
+        <v>0.04607193320384146</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2281567551.036503</v>
+        <v>2536951485.708825</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1231101105896614</v>
+        <v>0.1326588771852069</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04263528815733609</v>
+        <v>0.03985341637544804</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2660808443.221014</v>
+        <v>3351338887.07614</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1142293629467076</v>
+        <v>0.08983557442649148</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04241076804482837</v>
+        <v>0.03161188625240922</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2155995933.016084</v>
+        <v>2724976511.652889</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1483554817468818</v>
+        <v>0.1548737960205829</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01895028553498417</v>
+        <v>0.02032529544695585</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1509694431.724732</v>
+        <v>1840950039.534613</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09725303120656692</v>
+        <v>0.09673870714082324</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03202053671700734</v>
+        <v>0.02960110149856473</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1968453933.595704</v>
+        <v>1546323416.71962</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1646805297594059</v>
+        <v>0.1658930724854185</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03704465709696516</v>
+        <v>0.03940289754798087</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4175263143.79662</v>
+        <v>3654264839.799843</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1352062760264172</v>
+        <v>0.1784453421164983</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03871983941081931</v>
+        <v>0.04280208953897136</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4955852117.718374</v>
+        <v>5131369338.168344</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1901859885195122</v>
+        <v>0.1968393134769632</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05127631635610342</v>
+        <v>0.05661557674898363</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2956894798.65907</v>
+        <v>4503229133.808817</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08263375812208421</v>
+        <v>0.1005491502449494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02817852102670715</v>
+        <v>0.02815468311971547</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1203857490.87368</v>
+        <v>1967252398.564371</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1873443548852053</v>
+        <v>0.1330601626321032</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03050867979316979</v>
+        <v>0.0322281960414885</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3855188373.117548</v>
+        <v>4185265374.080586</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1379545714631124</v>
+        <v>0.1594378512891436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03820570486524417</v>
+        <v>0.03479578857331097</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1460812138.319037</v>
+        <v>935579259.0108277</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1628328702322073</v>
+        <v>0.1479752982353117</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05143437549443496</v>
+        <v>0.0357161358507803</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3260599965.848352</v>
+        <v>4078805312.387867</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1372020111659929</v>
+        <v>0.1312914281898812</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04194639979652001</v>
+        <v>0.06071915461884105</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3023612709.571225</v>
+        <v>3807533817.565078</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1481092209936511</v>
+        <v>0.1249554759341973</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0331586748144834</v>
+        <v>0.0337516045503215</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3398312491.925203</v>
+        <v>3217933698.766128</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1632802306634907</v>
+        <v>0.1364452108792757</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04366038935229392</v>
+        <v>0.03329081558109774</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3826224173.867337</v>
+        <v>4908809227.657737</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1387723629475715</v>
+        <v>0.1408751433863278</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02123052299003479</v>
+        <v>0.02914653086031615</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1871861651.536308</v>
+        <v>1443861423.685613</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1490852044091347</v>
+        <v>0.1439245739352299</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05780910337901728</v>
+        <v>0.04078813696910304</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3473519747.448593</v>
+        <v>3826908806.605759</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1272185183070995</v>
+        <v>0.1611797214269869</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02172388535639714</v>
+        <v>0.01849858708000324</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1312068740.139671</v>
+        <v>1457977554.170681</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2016249872747619</v>
+        <v>0.1496034887468746</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03770700237596591</v>
+        <v>0.03153689864133818</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4124328687.119117</v>
+        <v>4757116589.353323</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1001090823876279</v>
+        <v>0.09125530693790671</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04217461372554882</v>
+        <v>0.03274584293848488</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2603756034.097141</v>
+        <v>2843206964.868396</v>
       </c>
       <c r="F60" t="n">
-        <v>0.183914818964047</v>
+        <v>0.1945866131717976</v>
       </c>
       <c r="G60" t="n">
-        <v>0.028121268998695</v>
+        <v>0.02059569424402928</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3056646624.809211</v>
+        <v>3297280130.258022</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1603252704479382</v>
+        <v>0.1737123501301387</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0286002518379181</v>
+        <v>0.02162083147511922</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1510519417.103728</v>
+        <v>1332205570.65788</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1236803180593327</v>
+        <v>0.1675340327614045</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03372064641156823</v>
+        <v>0.03100855818998832</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4022195125.922585</v>
+        <v>5123094851.246506</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09046081614303672</v>
+        <v>0.1062355428683079</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04180673907936781</v>
+        <v>0.03454116801772859</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5562212829.858464</v>
+        <v>4529491463.961384</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1317048915433882</v>
+        <v>0.1327541281940038</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03387907344127895</v>
+        <v>0.03035712097455391</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5184774036.084476</v>
+        <v>3757301617.996728</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1276679653424596</v>
+        <v>0.1383197734585308</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02537057695340166</v>
+        <v>0.02150539447635973</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4384293957.862418</v>
+        <v>4378881096.249417</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1325710699224251</v>
+        <v>0.1344514589814643</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04107227168188255</v>
+        <v>0.03086193387103684</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3358934203.885198</v>
+        <v>2530483408.657433</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09699085746791136</v>
+        <v>0.069451100740006</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0378773502816893</v>
+        <v>0.05149341179804142</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4609813854.043498</v>
+        <v>4847216529.243111</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1317267420067889</v>
+        <v>0.1357426454330918</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04377814863770163</v>
+        <v>0.04217953052315619</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2147293475.247934</v>
+        <v>2081178903.694992</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1720230507505521</v>
+        <v>0.1225195509223789</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04658875592481185</v>
+        <v>0.04157257939717131</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2409796579.200922</v>
+        <v>3600120768.651131</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08822643719876827</v>
+        <v>0.1027703514794004</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04420411364793977</v>
+        <v>0.03263394210258828</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4643463378.653464</v>
+        <v>4650860984.535204</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1676099525675796</v>
+        <v>0.1704233360761917</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02671996784746586</v>
+        <v>0.03040242770027073</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2084205837.058936</v>
+        <v>2003980342.598522</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07025564481372759</v>
+        <v>0.08653892731500745</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03616045109339825</v>
+        <v>0.04960061027933912</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2821342258.977693</v>
+        <v>2803019666.728284</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06896364313808891</v>
+        <v>0.1040178819653802</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04354863946724573</v>
+        <v>0.0463289848367616</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3714890679.412722</v>
+        <v>3283694188.915846</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1355395774565067</v>
+        <v>0.1849561809229262</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02647537508415395</v>
+        <v>0.02652771863726293</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2154709195.157863</v>
+        <v>1730259881.067509</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1428960084173452</v>
+        <v>0.1052646306164473</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02649504692847648</v>
+        <v>0.02360002428085592</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3633954393.128906</v>
+        <v>3819973665.727509</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1194372875997891</v>
+        <v>0.1066228231681407</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0283305691374082</v>
+        <v>0.02756231161444181</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1483605048.980835</v>
+        <v>2204754576.224007</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1691590188403574</v>
+        <v>0.1414467979185128</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02464691482422044</v>
+        <v>0.02011437959525015</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3148649813.543152</v>
+        <v>4705012044.513843</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1085187054594813</v>
+        <v>0.1059688929765785</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04734727172761742</v>
+        <v>0.04607101549150689</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1687725688.748466</v>
+        <v>1916078669.461261</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1268222825905427</v>
+        <v>0.1124132224886062</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03172734289958875</v>
+        <v>0.03484299367231724</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4092616720.576357</v>
+        <v>5202252484.823133</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07341225529623653</v>
+        <v>0.09506925242191305</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03070271358839985</v>
+        <v>0.03291526002043105</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3631554524.914379</v>
+        <v>3746465383.127226</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1365488124244743</v>
+        <v>0.1315040841841585</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02764957229544265</v>
+        <v>0.03094396863304141</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5353433912.368651</v>
+        <v>4304064129.430641</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1781314814406195</v>
+        <v>0.1574323972201642</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02948778779030743</v>
+        <v>0.02549195053976495</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1997995601.594937</v>
+        <v>2428982299.474454</v>
       </c>
       <c r="F83" t="n">
-        <v>0.127679360390185</v>
+        <v>0.1163330031464681</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03160098053427364</v>
+        <v>0.03667169313020976</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2348493616.568171</v>
+        <v>2277987242.819218</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1185012482387542</v>
+        <v>0.1111185753871172</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05030042636463194</v>
+        <v>0.05156361170517505</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2246289363.859099</v>
+        <v>3236961095.094743</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1257331802006165</v>
+        <v>0.1429220761522354</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05303228532110556</v>
+        <v>0.05436313058534347</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2254057319.661407</v>
+        <v>2365721421.304639</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1211204119977181</v>
+        <v>0.1163594329903167</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0272076427758819</v>
+        <v>0.02502075737538674</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1078621261.419586</v>
+        <v>1198927874.101467</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1458964261881642</v>
+        <v>0.1444922491442062</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03162459976422617</v>
+        <v>0.04053375102085362</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3274495641.411695</v>
+        <v>2434453112.985974</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1554446916261076</v>
+        <v>0.1609697637752968</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0351965824538542</v>
+        <v>0.02866481059389865</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2808881790.676926</v>
+        <v>3072107810.220997</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1291203183644671</v>
+        <v>0.1543573919173138</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04071203140889215</v>
+        <v>0.03964489035049858</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2151994585.639443</v>
+        <v>2159432882.996068</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241988374085275</v>
+        <v>0.0835791339586438</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03560724989233562</v>
+        <v>0.05084995002307371</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1291524242.729443</v>
+        <v>1342082446.05785</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1766743352977643</v>
+        <v>0.1522146985668587</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06182182695970604</v>
+        <v>0.05418650824648387</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2730374594.899393</v>
+        <v>1886974837.020146</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08680892145839927</v>
+        <v>0.07140814975339158</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04577462394201805</v>
+        <v>0.03341945596821259</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3403102285.151031</v>
+        <v>4234031362.783655</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022549483055973</v>
+        <v>0.1144030742197384</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04821429943333989</v>
+        <v>0.04690556430477077</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2511632189.320084</v>
+        <v>1688141699.122623</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1318145612394583</v>
+        <v>0.1415035413125217</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04210461839142009</v>
+        <v>0.03632778961393589</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2533664817.774958</v>
+        <v>2423637052.334786</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08561180670766816</v>
+        <v>0.1206854290459196</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04807994100269966</v>
+        <v>0.05241982906615847</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1583739464.803267</v>
+        <v>2167962781.79346</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0951767988027972</v>
+        <v>0.1014093315024371</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02929906733611054</v>
+        <v>0.03137677524627807</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5253227895.09157</v>
+        <v>4668887762.385566</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1184044493171333</v>
+        <v>0.1225501936312097</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02228260408035205</v>
+        <v>0.02071353470982496</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3369169480.611489</v>
+        <v>3595724796.480208</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1299502742808484</v>
+        <v>0.0931623275574968</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0310624013327494</v>
+        <v>0.03250424313619225</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2330270923.500858</v>
+        <v>2282652437.674492</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1097761409662762</v>
+        <v>0.1255863808481557</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0239501117851205</v>
+        <v>0.03131549768890871</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4160237196.650907</v>
+        <v>2932616258.082028</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1681310825828568</v>
+        <v>0.135850029469802</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02092156952410647</v>
+        <v>0.02318046839468482</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3447658272.710812</v>
+        <v>2837227964.456643</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1440058874981185</v>
+        <v>0.206473648371083</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03867055394655428</v>
+        <v>0.03584092395440804</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_343.xlsx
+++ b/output/fit_clients/fit_round_343.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1922455093.153033</v>
+        <v>1912988532.951351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0998948498697614</v>
+        <v>0.1019135028048662</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04088751921009601</v>
+        <v>0.04549664185421261</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1602492071.466976</v>
+        <v>2467987666.642134</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1712079237665878</v>
+        <v>0.1270177840591799</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04213830466862763</v>
+        <v>0.04653999175035255</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4694757675.633143</v>
+        <v>4019991865.29947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.153254715113694</v>
+        <v>0.1105520690009023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03149198234887509</v>
+        <v>0.02751980062705556</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>178</v>
+      </c>
+      <c r="J4" t="n">
+        <v>342</v>
+      </c>
+      <c r="K4" t="n">
+        <v>65.17619547998237</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3466982997.548067</v>
+        <v>4069278600.282838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07723960387359692</v>
+        <v>0.08990473821883095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04292360696030105</v>
+        <v>0.04115889759165815</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>135</v>
+      </c>
+      <c r="J5" t="n">
+        <v>343</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2243797385.242088</v>
+        <v>2392040200.81115</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1007180012441114</v>
+        <v>0.1011503601845214</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03537262672061543</v>
+        <v>0.03802641739357307</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2896547713.617064</v>
+        <v>2073049088.153597</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09815029314837891</v>
+        <v>0.08785382370149265</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03465062502284569</v>
+        <v>0.04654043295396442</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3978974559.811108</v>
+        <v>3683007943.533879</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2081417025049969</v>
+        <v>0.1432111021484722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02637218150438863</v>
+        <v>0.02706665019454318</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>89</v>
+      </c>
+      <c r="J8" t="n">
+        <v>343</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2165791753.29834</v>
+        <v>1595269010.869012</v>
       </c>
       <c r="F9" t="n">
-        <v>0.159753604663051</v>
+        <v>0.1398710923014307</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03180682087701104</v>
+        <v>0.02425948170094565</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4964239717.338204</v>
+        <v>5393429632.692763</v>
       </c>
       <c r="F10" t="n">
-        <v>0.163541631081144</v>
+        <v>0.2135168933134094</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04086180247064836</v>
+        <v>0.04851956661942225</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>292</v>
+      </c>
+      <c r="J10" t="n">
+        <v>342</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64.67260864612673</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2817824635.018272</v>
+        <v>3746173541.172245</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726870481213023</v>
+        <v>0.1333373159219291</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03110574010312937</v>
+        <v>0.03413577610040114</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>140</v>
+      </c>
+      <c r="J11" t="n">
+        <v>343</v>
+      </c>
+      <c r="K11" t="n">
+        <v>72.29088356885856</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2219169017.722021</v>
+        <v>3021448532.448614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1787264665847855</v>
+        <v>0.1654175270816232</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04252662917697581</v>
+        <v>0.04380772526907836</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4814325859.913944</v>
+        <v>3427054527.338094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09268703389937137</v>
+        <v>0.07365336677401785</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02048026639093125</v>
+        <v>0.02312408344563656</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>178</v>
+      </c>
+      <c r="J13" t="n">
+        <v>341</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3642811619.150097</v>
+        <v>3503931388.192428</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1698595665028548</v>
+        <v>0.1374420940283702</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02671869523408149</v>
+        <v>0.04126848330754857</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>69</v>
+      </c>
+      <c r="J14" t="n">
+        <v>336</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1283346899.653221</v>
+        <v>1708999017.212445</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08127637931439581</v>
+        <v>0.06801030596693108</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03895866665379124</v>
+        <v>0.04232138034190457</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2839261553.320696</v>
+        <v>2415923550.706179</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09237330459776971</v>
+        <v>0.0898675708628604</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03710382806419114</v>
+        <v>0.03502185396701948</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3208388766.16353</v>
+        <v>4346272234.30478</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1218391579291713</v>
+        <v>0.143633126083366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03317630839816609</v>
+        <v>0.03963005414182863</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>162</v>
+      </c>
+      <c r="J17" t="n">
+        <v>342</v>
+      </c>
+      <c r="K17" t="n">
+        <v>65.65412305793826</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3061420781.213111</v>
+        <v>2528457877.791096</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1572068322047039</v>
+        <v>0.1122110734181811</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0247748512122153</v>
+        <v>0.02285863904202391</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>83</v>
+      </c>
+      <c r="J18" t="n">
+        <v>336</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1211269038.55732</v>
+        <v>926964491.330204</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1612492173012912</v>
+        <v>0.1854778421556071</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01676946254099893</v>
+        <v>0.02582935374561005</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2063730479.542807</v>
+        <v>1697281677.800077</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1428862809934017</v>
+        <v>0.1323335221480116</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02318098560220002</v>
+        <v>0.02688553993900141</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2019690158.673532</v>
+        <v>1913621661.065468</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06576137977656862</v>
+        <v>0.08385562286585607</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03012019893325949</v>
+        <v>0.04551878479438444</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2983413812.995243</v>
+        <v>2930555701.730721</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08804337366805495</v>
+        <v>0.09894032709690669</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05189253472703548</v>
+        <v>0.04570458219925926</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>93</v>
+      </c>
+      <c r="J22" t="n">
+        <v>338</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>937387929.3819256</v>
+        <v>1510937399.601023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1661523444257508</v>
+        <v>0.1250791835136096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04044806409025527</v>
+        <v>0.04128774818807091</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3262021990.243283</v>
+        <v>2863870022.82664</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1062437041836635</v>
+        <v>0.1077314426571603</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02680566780757695</v>
+        <v>0.02684274200980626</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>102</v>
+      </c>
+      <c r="J24" t="n">
+        <v>342</v>
+      </c>
+      <c r="K24" t="n">
+        <v>38.00075092966076</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1174808611.433132</v>
+        <v>1192380114.641857</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1156142211257048</v>
+        <v>0.09699419251667056</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02547301189446618</v>
+        <v>0.01962020082311839</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1204096035.556933</v>
+        <v>920978366.8421098</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09142085631558168</v>
+        <v>0.0750272283176307</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03241569370934592</v>
+        <v>0.03002527028248506</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4598675221.250063</v>
+        <v>3630829038.223322</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1295412959810044</v>
+        <v>0.1193940120419883</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01830265041508394</v>
+        <v>0.01975653020175872</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>142</v>
+      </c>
+      <c r="J27" t="n">
+        <v>343</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3724935851.821749</v>
+        <v>3874193461.509879</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1373321666393467</v>
+        <v>0.1147809477323427</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0417884716396569</v>
+        <v>0.04506908469548571</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>76</v>
+      </c>
+      <c r="J28" t="n">
+        <v>343</v>
+      </c>
+      <c r="K28" t="n">
+        <v>82.40320751497637</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4302383137.778778</v>
+        <v>5462805290.648153</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1336049716155125</v>
+        <v>0.137288517049383</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02909881906233401</v>
+        <v>0.03816063258348113</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>309</v>
+      </c>
+      <c r="J29" t="n">
+        <v>343</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2336907891.755781</v>
+        <v>2120154246.985013</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09708878745121442</v>
+        <v>0.1057438263920232</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02985081164389064</v>
+        <v>0.02620323175217675</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1017591217.283015</v>
+        <v>1138108781.377986</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09330456235340195</v>
+        <v>0.1030516838091298</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04230222189076998</v>
+        <v>0.04203948277819633</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1598675697.769889</v>
+        <v>1616931550.919973</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1201550278055577</v>
+        <v>0.08114899012203591</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03310899963744103</v>
+        <v>0.03464604571331931</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2834993381.348869</v>
+        <v>2626764424.701556</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1572410663815637</v>
+        <v>0.1660350534401049</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04191702926776368</v>
+        <v>0.04250653689164697</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1521791101.410743</v>
+        <v>1283424003.306573</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07438097118685445</v>
+        <v>0.1179917565403246</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02505183061450156</v>
+        <v>0.01736346616586671</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1190211280.639798</v>
+        <v>955670264.4976664</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0923556746975291</v>
+        <v>0.08101967300650521</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04095443534732814</v>
+        <v>0.04333049906866412</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2653766271.604118</v>
+        <v>2712874212.789487</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1331170285604215</v>
+        <v>0.1457951374965134</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02050220493857356</v>
+        <v>0.02612821810355006</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2008685165.858992</v>
+        <v>2349494029.979617</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0720484964830729</v>
+        <v>0.08603192483506128</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03634939267869638</v>
+        <v>0.02764067344671538</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1864172057.584666</v>
+        <v>1382725021.695858</v>
       </c>
       <c r="F38" t="n">
-        <v>0.113836129169453</v>
+        <v>0.1092892087041107</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03964222739275819</v>
+        <v>0.03417125656531472</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1956054659.77273</v>
+        <v>1841037368.721025</v>
       </c>
       <c r="F39" t="n">
-        <v>0.194251729535106</v>
+        <v>0.1194767922114414</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02034783591768566</v>
+        <v>0.02109276196329472</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1153748934.222298</v>
+        <v>1585547884.401372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.13290291687478</v>
+        <v>0.1170317384108616</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04607193320384146</v>
+        <v>0.04203812537724533</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2536951485.708825</v>
+        <v>2625765636.744841</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1326588771852069</v>
+        <v>0.1244875064279066</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03985341637544804</v>
+        <v>0.02853118429373759</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3351338887.07614</v>
+        <v>3568953770.510121</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08983557442649148</v>
+        <v>0.07970877270921338</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03161188625240922</v>
+        <v>0.04060761079391503</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>149</v>
+      </c>
+      <c r="J42" t="n">
+        <v>343</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2724976511.652889</v>
+        <v>2991632765.377427</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1548737960205829</v>
+        <v>0.1569135942619117</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02032529544695585</v>
+        <v>0.02281445218444386</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1840950039.534613</v>
+        <v>1496557275.20407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09673870714082324</v>
+        <v>0.07720197522886096</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02960110149856473</v>
+        <v>0.03076638731935501</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1546323416.71962</v>
+        <v>1912341660.357713</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1658930724854185</v>
+        <v>0.1847740094992492</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03940289754798087</v>
+        <v>0.03394316870755621</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3654264839.799843</v>
+        <v>5558969776.112435</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1784453421164983</v>
+        <v>0.1593816433334883</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04280208953897136</v>
+        <v>0.04039212483480311</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>205</v>
+      </c>
+      <c r="J46" t="n">
+        <v>343</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5131369338.168344</v>
+        <v>4829743594.727737</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1968393134769632</v>
+        <v>0.197642477751317</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05661557674898363</v>
+        <v>0.05873042441736209</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>153</v>
+      </c>
+      <c r="J47" t="n">
+        <v>342</v>
+      </c>
+      <c r="K47" t="n">
+        <v>58.98984321905549</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4503229133.808817</v>
+        <v>4503461659.399395</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1005491502449494</v>
+        <v>0.1054490635688215</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02815468311971547</v>
+        <v>0.0340525630220904</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>169</v>
+      </c>
+      <c r="J48" t="n">
+        <v>343</v>
+      </c>
+      <c r="K48" t="n">
+        <v>77.98208438169983</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1967252398.564371</v>
+        <v>1829327309.47032</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1330601626321032</v>
+        <v>0.1856124662695601</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0322281960414885</v>
+        <v>0.04016696793489073</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4185265374.080586</v>
+        <v>3697808265.804752</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1594378512891436</v>
+        <v>0.1616134359444675</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03479578857331097</v>
+        <v>0.04656709398198285</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>112</v>
+      </c>
+      <c r="J50" t="n">
+        <v>343</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>935579259.0108277</v>
+        <v>1313171374.026611</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1479752982353117</v>
+        <v>0.163083102750486</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0357161358507803</v>
+        <v>0.03684863046160822</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4078805312.387867</v>
+        <v>4732596613.939958</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1312914281898812</v>
+        <v>0.08786993034049534</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06071915461884105</v>
+        <v>0.0412328366139499</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>205</v>
+      </c>
+      <c r="J52" t="n">
+        <v>343</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3807533817.565078</v>
+        <v>2489439291.381715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1249554759341973</v>
+        <v>0.1232550358564967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0337516045503215</v>
+        <v>0.03527172314649121</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>50</v>
+      </c>
+      <c r="J53" t="n">
+        <v>341</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3217933698.766128</v>
+        <v>3016564722.544311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1364452108792757</v>
+        <v>0.1127323238470207</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03329081558109774</v>
+        <v>0.04576642399924184</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>181</v>
+      </c>
+      <c r="J54" t="n">
+        <v>342</v>
+      </c>
+      <c r="K54" t="n">
+        <v>41.06049858426299</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4908809227.657737</v>
+        <v>3195253268.657248</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1408751433863278</v>
+        <v>0.1902004561155622</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02914653086031615</v>
+        <v>0.03239227922668339</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>164</v>
+      </c>
+      <c r="J55" t="n">
+        <v>342</v>
+      </c>
+      <c r="K55" t="n">
+        <v>46.84101621112643</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1443861423.685613</v>
+        <v>1182777617.464732</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1439245739352299</v>
+        <v>0.1123205872576717</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04078813696910304</v>
+        <v>0.03707965406543674</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3826908806.605759</v>
+        <v>3763420620.888888</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1611797214269869</v>
+        <v>0.1415748388944641</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01849858708000324</v>
+        <v>0.02590977461474012</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>141</v>
+      </c>
+      <c r="J57" t="n">
+        <v>342</v>
+      </c>
+      <c r="K57" t="n">
+        <v>66.6175444836377</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1457977554.170681</v>
+        <v>1860950983.076391</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1496034887468746</v>
+        <v>0.1414380428210285</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03153689864133818</v>
+        <v>0.03803165227671581</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4757116589.353323</v>
+        <v>5013145161.015497</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09125530693790671</v>
+        <v>0.1217850293471901</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03274584293848488</v>
+        <v>0.04138735440353655</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>165</v>
+      </c>
+      <c r="J59" t="n">
+        <v>343</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2843206964.868396</v>
+        <v>2357125302.834239</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1945866131717976</v>
+        <v>0.1694517989333743</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02059569424402928</v>
+        <v>0.03112054659953254</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>60</v>
+      </c>
+      <c r="J60" t="n">
+        <v>338</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3297280130.258022</v>
+        <v>2923323267.442403</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1737123501301387</v>
+        <v>0.1295164125181334</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02162083147511922</v>
+        <v>0.02327260419393201</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1332205570.65788</v>
+        <v>1298169600.462169</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1675340327614045</v>
+        <v>0.1493115455967194</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03100855818998832</v>
+        <v>0.03706498691871321</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5123094851.246506</v>
+        <v>3569071196.159473</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1062355428683079</v>
+        <v>0.09231933197668384</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03454116801772859</v>
+        <v>0.04031319689477723</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>168</v>
+      </c>
+      <c r="J63" t="n">
+        <v>342</v>
+      </c>
+      <c r="K63" t="n">
+        <v>55.20483944199547</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4529491463.961384</v>
+        <v>5361217283.082074</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1327541281940038</v>
+        <v>0.183195575955096</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03035712097455391</v>
+        <v>0.02342506020653937</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>170</v>
+      </c>
+      <c r="J64" t="n">
+        <v>342</v>
+      </c>
+      <c r="K64" t="n">
+        <v>65.81106271960563</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2732,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3757301617.996728</v>
+        <v>4242842076.299947</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1383197734585308</v>
+        <v>0.1679162886681975</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02150539447635973</v>
+        <v>0.0224922661723363</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>266</v>
+      </c>
+      <c r="J65" t="n">
+        <v>342</v>
+      </c>
+      <c r="K65" t="n">
+        <v>64.7404802153669</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2769,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4378881096.249417</v>
+        <v>5498761345.277384</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1344514589814643</v>
+        <v>0.1465406993866797</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03086193387103684</v>
+        <v>0.05058471400464532</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>169</v>
+      </c>
+      <c r="J66" t="n">
+        <v>343</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2530483408.657433</v>
+        <v>2141927272.803527</v>
       </c>
       <c r="F67" t="n">
-        <v>0.069451100740006</v>
+        <v>0.0826720126468927</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05149341179804142</v>
+        <v>0.04207630136960436</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2839,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4847216529.243111</v>
+        <v>5969567238.463122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1357426454330918</v>
+        <v>0.1286197685040631</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04217953052315619</v>
+        <v>0.05000753030743046</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>186</v>
+      </c>
+      <c r="J68" t="n">
+        <v>343</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2081178903.694992</v>
+        <v>1603248452.183709</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1225195509223789</v>
+        <v>0.1247962393598494</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04157257939717131</v>
+        <v>0.04183350618448285</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3600120768.651131</v>
+        <v>2583533105.633487</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1027703514794004</v>
+        <v>0.09841561791539394</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03263394210258828</v>
+        <v>0.03617152299567755</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>50</v>
+      </c>
+      <c r="J70" t="n">
+        <v>332</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4650860984.535204</v>
+        <v>3568646745.362736</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1704233360761917</v>
+        <v>0.1557431272152726</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03040242770027073</v>
+        <v>0.02058698103845705</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>251</v>
+      </c>
+      <c r="J71" t="n">
+        <v>343</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2003980342.598522</v>
+        <v>1516394053.431504</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08653892731500745</v>
+        <v>0.07632315445181027</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04960061027933912</v>
+        <v>0.04192570026545459</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2803019666.728284</v>
+        <v>3384385802.122865</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1040178819653802</v>
+        <v>0.08266190921252087</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0463289848367616</v>
+        <v>0.03542286982197794</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3283694188.915846</v>
+        <v>3010291393.899517</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1849561809229262</v>
+        <v>0.1164759135882687</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02652771863726293</v>
+        <v>0.02780160673130928</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>93</v>
+      </c>
+      <c r="J74" t="n">
+        <v>341</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1730259881.067509</v>
+        <v>2057143514.558326</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1052646306164473</v>
+        <v>0.1445615771305648</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02360002428085592</v>
+        <v>0.03331595989182291</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3819973665.727509</v>
+        <v>5330067785.873262</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1066228231681407</v>
+        <v>0.09631346437487386</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02756231161444181</v>
+        <v>0.02093020088147689</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>162</v>
+      </c>
+      <c r="J76" t="n">
+        <v>342</v>
+      </c>
+      <c r="K76" t="n">
+        <v>64.32087025802302</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204754576.224007</v>
+        <v>2182724034.514657</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1414467979185128</v>
+        <v>0.134250231302849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02011437959525015</v>
+        <v>0.02304316033964719</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4705012044.513843</v>
+        <v>4097238132.364528</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1059688929765785</v>
+        <v>0.09900881135248127</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04607101549150689</v>
+        <v>0.04164547490898463</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>170</v>
+      </c>
+      <c r="J78" t="n">
+        <v>343</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1916078669.461261</v>
+        <v>1405365895.171258</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1124132224886062</v>
+        <v>0.1484375636100648</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03484299367231724</v>
+        <v>0.03466835664488489</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5202252484.823133</v>
+        <v>3408058681.590996</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09506925242191305</v>
+        <v>0.1064772728955349</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03291526002043105</v>
+        <v>0.0286699532229414</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>168</v>
+      </c>
+      <c r="J80" t="n">
+        <v>342</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.40133980150345</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3746465383.127226</v>
+        <v>4990958194.862137</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1315040841841585</v>
+        <v>0.1294064978768122</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03094396863304141</v>
+        <v>0.02477134197026074</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>158</v>
+      </c>
+      <c r="J81" t="n">
+        <v>343</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4304064129.430641</v>
+        <v>4801985076.391285</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1574323972201642</v>
+        <v>0.1869421594344828</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02549195053976495</v>
+        <v>0.02855635289006927</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>245</v>
+      </c>
+      <c r="J82" t="n">
+        <v>342</v>
+      </c>
+      <c r="K82" t="n">
+        <v>64.11812709045378</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2428982299.474454</v>
+        <v>1956087467.20034</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1163330031464681</v>
+        <v>0.1029012311948433</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03667169313020976</v>
+        <v>0.03661200165614801</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2277987242.819218</v>
+        <v>1757389517.223337</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1111185753871172</v>
+        <v>0.0765433091125166</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05156361170517505</v>
+        <v>0.04666991161950915</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3236961095.094743</v>
+        <v>3453579225.917837</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1429220761522354</v>
+        <v>0.1326877999487147</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05436313058534347</v>
+        <v>0.0370668293452198</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>45</v>
+      </c>
+      <c r="J85" t="n">
+        <v>343</v>
+      </c>
+      <c r="K85" t="n">
+        <v>75.03891104071103</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2365721421.304639</v>
+        <v>2673656323.299881</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1163594329903167</v>
+        <v>0.170152149158291</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02502075737538674</v>
+        <v>0.01686641776361686</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1198927874.101467</v>
+        <v>1045648415.420864</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1444922491442062</v>
+        <v>0.145822019649895</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04053375102085362</v>
+        <v>0.03158746312370761</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2434453112.985974</v>
+        <v>2709760247.464409</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1609697637752968</v>
+        <v>0.1749459470576475</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02866481059389865</v>
+        <v>0.04012191608974351</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3072107810.220997</v>
+        <v>3507377157.434284</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1543573919173138</v>
+        <v>0.1358068392867496</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03964489035049858</v>
+        <v>0.03212242290274848</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2159432882.996068</v>
+        <v>1356085560.861856</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0835791339586438</v>
+        <v>0.08857655687658611</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05084995002307371</v>
+        <v>0.0492223254387971</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1342082446.05785</v>
+        <v>1561238288.383068</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1522146985668587</v>
+        <v>0.1480300262102697</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05418650824648387</v>
+        <v>0.06131747175836762</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1886974837.020146</v>
+        <v>2412625764.971827</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07140814975339158</v>
+        <v>0.1036368470647897</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03341945596821259</v>
+        <v>0.0441627730122378</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4234031362.783655</v>
+        <v>4709895341.24216</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1144030742197384</v>
+        <v>0.1260816987099254</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04690556430477077</v>
+        <v>0.03792880549425882</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>158</v>
+      </c>
+      <c r="J93" t="n">
+        <v>342</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66.56654122684458</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1688141699.122623</v>
+        <v>1595647399.94234</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1415035413125217</v>
+        <v>0.1495656285094809</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03632778961393589</v>
+        <v>0.03871114028978615</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2423637052.334786</v>
+        <v>2604348213.584548</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1206854290459196</v>
+        <v>0.08714131590026104</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05241982906615847</v>
+        <v>0.04680373267357001</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2167962781.79346</v>
+        <v>2263118469.941287</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1014093315024371</v>
+        <v>0.1237430170010136</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03137677524627807</v>
+        <v>0.04169693465046529</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4668887762.385566</v>
+        <v>3593802531.981024</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1225501936312097</v>
+        <v>0.1095808671623017</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02071353470982496</v>
+        <v>0.01995149548749876</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>176</v>
+      </c>
+      <c r="J97" t="n">
+        <v>343</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3595724796.480208</v>
+        <v>3169550551.027666</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0931623275574968</v>
+        <v>0.1177373881033664</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03250424313619225</v>
+        <v>0.02993505500800286</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>86</v>
+      </c>
+      <c r="J98" t="n">
+        <v>340</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2282652437.674492</v>
+        <v>3310972690.044608</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1255863808481557</v>
+        <v>0.09590839133807265</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03131549768890871</v>
+        <v>0.03113763312601484</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2932616258.082028</v>
+        <v>3886962052.486016</v>
       </c>
       <c r="F100" t="n">
-        <v>0.135850029469802</v>
+        <v>0.1752644708869902</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02318046839468482</v>
+        <v>0.02503180383179994</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>155</v>
+      </c>
+      <c r="J100" t="n">
+        <v>343</v>
+      </c>
+      <c r="K100" t="n">
+        <v>66.70722703220177</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2837227964.456643</v>
+        <v>2578174375.143301</v>
       </c>
       <c r="F101" t="n">
-        <v>0.206473648371083</v>
+        <v>0.1683447953373953</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03584092395440804</v>
+        <v>0.05179611268557439</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>32</v>
+      </c>
+      <c r="J101" t="n">
+        <v>341</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
